--- a/صيدليات دكتور مصطفي طلعت_2026-01-14_22-16.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-14_22-16.xlsx
@@ -378,6 +378,9 @@
   </si>
   <si>
     <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
     <t>SULBIN 750MG VIAL</t>
@@ -3346,17 +3349,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>124</v>
+        <v>11</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3364,7 +3367,7 @@
         <v>89</v>
       </c>
       <c t="s" r="B92" s="7">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3372,17 +3375,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3398,17 +3401,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3424,13 +3427,13 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
@@ -3450,17 +3453,17 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1">
@@ -3476,17 +3479,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>531</v>
+        <v>41</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3502,17 +3505,17 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>-96</v>
+        <v>531</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3528,17 +3531,17 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>11</v>
+        <v>-96</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" ht="24.75" customHeight="1">
@@ -3554,17 +3557,17 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" ht="25.5" customHeight="1">
@@ -3580,13 +3583,13 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="M100" s="9"/>
       <c t="s" r="N100" s="7">
@@ -3606,13 +3609,13 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="M101" s="9"/>
       <c t="s" r="N101" s="7">
@@ -3632,13 +3635,13 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="M102" s="9"/>
       <c t="s" r="N102" s="7">
@@ -3658,13 +3661,13 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>25.739999999999998</v>
+        <v>120</v>
       </c>
       <c r="M103" s="9"/>
       <c t="s" r="N103" s="7">
@@ -3684,17 +3687,17 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>14.67</v>
+        <v>25.739999999999998</v>
       </c>
       <c r="M104" s="9"/>
       <c t="s" r="N104" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" ht="25.5" customHeight="1">
@@ -3702,7 +3705,7 @@
         <v>102</v>
       </c>
       <c t="s" r="B105" s="7">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -3710,17 +3713,17 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>60</v>
+        <v>139</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>34</v>
+        <v>14.67</v>
       </c>
       <c r="M105" s="9"/>
       <c t="s" r="N105" s="7">
-        <v>52</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106" ht="24.75" customHeight="1">
@@ -3736,17 +3739,17 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>16.5</v>
+        <v>34</v>
       </c>
       <c r="M106" s="9"/>
       <c t="s" r="N106" s="7">
-        <v>124</v>
+        <v>52</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -3754,7 +3757,7 @@
         <v>104</v>
       </c>
       <c t="s" r="B107" s="7">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -3762,17 +3765,17 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>86</v>
+        <v>16.5</v>
       </c>
       <c r="M107" s="9"/>
       <c t="s" r="N107" s="7">
-        <v>9</v>
+        <v>125</v>
       </c>
     </row>
     <row r="108" ht="25.5" customHeight="1">
@@ -3788,17 +3791,17 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c t="s" r="H108" s="8">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="M108" s="9"/>
       <c t="s" r="N108" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" ht="24.75" customHeight="1">
@@ -3814,17 +3817,17 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="M109" s="9"/>
       <c t="s" r="N109" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" ht="25.5" customHeight="1">
@@ -3840,17 +3843,17 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c t="s" r="H110" s="8">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="M110" s="9"/>
       <c t="s" r="N110" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" ht="24.75" customHeight="1">
@@ -3866,17 +3869,17 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>50</v>
+        <v>192</v>
       </c>
       <c r="M111" s="9"/>
       <c t="s" r="N111" s="7">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -3898,11 +3901,11 @@
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>375</v>
+        <v>50</v>
       </c>
       <c r="M112" s="9"/>
       <c t="s" r="N112" s="7">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113" ht="25.5" customHeight="1">
@@ -3918,13 +3921,13 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c t="s" r="H113" s="8">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>20</v>
+        <v>375</v>
       </c>
       <c r="M113" s="9"/>
       <c t="s" r="N113" s="7">
@@ -3944,17 +3947,17 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c t="s" r="H114" s="8">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M114" s="9"/>
       <c t="s" r="N114" s="7">
-        <v>91</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115" ht="25.5" customHeight="1">
@@ -3962,7 +3965,7 @@
         <v>112</v>
       </c>
       <c t="s" r="B115" s="7">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -3970,17 +3973,17 @@
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c t="s" r="H115" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M115" s="9"/>
       <c t="s" r="N115" s="7">
-        <v>35</v>
+        <v>91</v>
       </c>
     </row>
     <row r="116" ht="24.75" customHeight="1">
@@ -3988,7 +3991,7 @@
         <v>113</v>
       </c>
       <c t="s" r="B116" s="7">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -3996,17 +3999,17 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c t="s" r="H116" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="9">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="M116" s="9"/>
       <c t="s" r="N116" s="7">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -4014,7 +4017,7 @@
         <v>114</v>
       </c>
       <c t="s" r="B117" s="7">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
@@ -4022,13 +4025,13 @@
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c t="s" r="H117" s="8">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
       <c r="L117" s="9">
-        <v>50</v>
+        <v>-2</v>
       </c>
       <c r="M117" s="9"/>
       <c t="s" r="N117" s="7">
@@ -4054,7 +4057,7 @@
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
       <c r="L118" s="9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="M118" s="9"/>
       <c t="s" r="N118" s="7">
@@ -4074,13 +4077,13 @@
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c t="s" r="H119" s="8">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
       <c r="L119" s="9">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="M119" s="9"/>
       <c t="s" r="N119" s="7">
@@ -4100,13 +4103,13 @@
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c t="s" r="H120" s="8">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
       <c r="L120" s="9">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="M120" s="9"/>
       <c t="s" r="N120" s="7">
@@ -4126,13 +4129,13 @@
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c t="s" r="H121" s="8">
-        <v>91</v>
+        <v>155</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
       <c r="L121" s="9">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="M121" s="9"/>
       <c t="s" r="N121" s="7">
@@ -4152,13 +4155,13 @@
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c t="s" r="H122" s="8">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
       <c r="L122" s="9">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="M122" s="9"/>
       <c t="s" r="N122" s="7">
@@ -4166,37 +4169,63 @@
       </c>
     </row>
     <row r="123" ht="25.5" customHeight="1">
-      <c r="K123" s="10">
-        <v>6999.5600000000004</v>
-      </c>
-      <c r="L123" s="10"/>
-      <c r="M123" s="10"/>
-      <c r="N123" s="10"/>
-    </row>
-    <row r="124" ht="17.25" customHeight="1">
-      <c t="s" r="A124" s="11">
+      <c r="A123" s="6">
+        <v>120</v>
+      </c>
+      <c t="s" r="B123" s="7">
         <v>161</v>
       </c>
-      <c r="B124" s="11"/>
-      <c r="C124" s="11"/>
-      <c r="D124" s="11"/>
-      <c r="E124" s="11"/>
-      <c t="s" r="F124" s="12">
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="7"/>
+      <c t="s" r="H123" s="8">
+        <v>9</v>
+      </c>
+      <c r="I123" s="8"/>
+      <c r="J123" s="8"/>
+      <c r="K123" s="8"/>
+      <c r="L123" s="9">
+        <v>20</v>
+      </c>
+      <c r="M123" s="9"/>
+      <c t="s" r="N123" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="K124" s="10">
+        <v>7022.5600000000004</v>
+      </c>
+      <c r="L124" s="10"/>
+      <c r="M124" s="10"/>
+      <c r="N124" s="10"/>
+    </row>
+    <row r="125" ht="16.5" customHeight="1">
+      <c t="s" r="A125" s="11">
         <v>162</v>
       </c>
-      <c r="G124" s="12"/>
-      <c r="H124" s="13"/>
-      <c t="s" r="I124" s="14">
+      <c r="B125" s="11"/>
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="11"/>
+      <c t="s" r="F125" s="12">
         <v>163</v>
       </c>
-      <c r="J124" s="14"/>
-      <c r="K124" s="14"/>
-      <c r="L124" s="14"/>
-      <c r="M124" s="14"/>
-      <c r="N124" s="14"/>
+      <c r="G125" s="12"/>
+      <c r="H125" s="13"/>
+      <c t="s" r="I125" s="14">
+        <v>164</v>
+      </c>
+      <c r="J125" s="14"/>
+      <c r="K125" s="14"/>
+      <c r="L125" s="14"/>
+      <c r="M125" s="14"/>
+      <c r="N125" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="368">
+  <mergeCells count="371">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4561,10 +4590,13 @@
     <mergeCell ref="B122:G122"/>
     <mergeCell ref="H122:K122"/>
     <mergeCell ref="L122:M122"/>
-    <mergeCell ref="K123:N123"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="F124:G124"/>
-    <mergeCell ref="I124:N124"/>
+    <mergeCell ref="B123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="K124:N124"/>
+    <mergeCell ref="A125:E125"/>
+    <mergeCell ref="F125:G125"/>
+    <mergeCell ref="I125:N125"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
